--- a/Nucleo_DCO表示データ・I2C通信・フォーマット.xlsx
+++ b/Nucleo_DCO表示データ・I2C通信・フォーマット.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>Nucleo_DCO表示データ・I2C通信・フォーマット</t>
     <rPh sb="10" eb="12">
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DM_TITLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mode#</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,6 +468,35 @@
   </si>
   <si>
     <t>DM_DISPLAY_OFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE_STR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE_STR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE_STR3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode#128以降の文字列を表示</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +855,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>400000</v>
@@ -841,592 +866,620 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <f>SUM(E7)</f>
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
+      <c r="H7">
+        <f>(1+G7)*(1/$B$4)*1000000</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9">
-        <f>SUM(E7:E9)</f>
-        <v>48</v>
-      </c>
-      <c r="H9">
-        <f>(1+G9)*(1/$B$4)*1000000</f>
-        <v>122.50000000000003</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <f>SUM(E9:E17)</f>
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f>(1+G17)*(1/$B$4)*1000000</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <f>SUM(E11:E19)</f>
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <f>(1+G19)*(1/$B$4)*1000000</f>
-        <v>27.5</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
         <v>49</v>
+      </c>
+      <c r="G23">
+        <f>SUM(E19:E23)</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f>(1+G23)*(1/$B$4)*1000000</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <f>SUM(E21:E25)</f>
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <f>(1+G25)*(1/$B$4)*1000000</f>
-        <v>27.5</v>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>57</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29">
+        <f>SUM(E25:E29)</f>
         <v>9</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
+      <c r="H29">
+        <f>(1+G29)*(1/$B$4)*1000000</f>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31">
-        <f>SUM(E27:E31)</f>
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <f>(1+G31)*(1/$B$4)*1000000</f>
-        <v>25</v>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <f>SUM(E31:E33)</f>
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>(1+G33)*(1/$B$4)*1000000</f>
+        <v>17.500000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35">
-        <f>SUM(E33:E35)</f>
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <f>(1+G35)*(1/$B$4)*1000000</f>
-        <v>17.500000000000004</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G37">
-        <f>SUM(E37)</f>
-        <v>1</v>
+        <f>SUM(E35:E37)</f>
+        <v>96</v>
       </c>
       <c r="H37">
         <f>(1+G37)*(1/$B$4)*1000000</f>
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39">
+        <f>SUM(E39)</f>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f>(1+G39)*(1/$B$4)*1000000</f>
         <v>5</v>
       </c>
     </row>

--- a/Nucleo_DCO表示データ・I2C通信・フォーマット.xlsx
+++ b/Nucleo_DCO表示データ・I2C通信・フォーマット.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Nucleo_DCO表示データ・I2C通信・フォーマット</t>
     <rPh sb="10" eb="12">
@@ -497,6 +497,21 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detune1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1のデチューン(0.001Hz単位)</t>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int16</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -827,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,7 +873,7 @@
         <v>71</v>
       </c>
       <c r="B4">
-        <v>400000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -911,8 +926,8 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>(1+G7)*(1/$B$4)*1000000</f>
-        <v>2.5</v>
+        <f>(2+G7)*8*(1/$B$4)*1000000</f>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1099,8 +1114,8 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <f>(1+G17)*(1/$B$4)*1000000</f>
-        <v>27.5</v>
+        <f>(2+G17)*8*(1/$B$4)*1000000</f>
+        <v>960.00000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1171,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
@@ -1180,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1191,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -1200,46 +1215,46 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>49</v>
       </c>
-      <c r="G23">
-        <f>SUM(E19:E23)</f>
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <f>(1+G23)*(1/$B$4)*1000000</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
+      <c r="G24">
+        <f>SUM(E19:E24)</f>
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f>(2+G24)*8*(1/$B$4)*1000000</f>
+        <v>1120.0000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
@@ -1248,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1259,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
@@ -1268,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1279,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -1288,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1299,58 +1314,58 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>61</v>
       </c>
-      <c r="G29">
-        <f>SUM(E25:E29)</f>
+      <c r="G30">
+        <f>SUM(E26:E30)</f>
         <v>9</v>
       </c>
-      <c r="H29">
-        <f>(1+G29)*(1/$B$4)*1000000</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
+      <c r="H30">
+        <f>(2+G30)*8*(1/$B$4)*1000000</f>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1367,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -1378,44 +1393,44 @@
       <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33">
-        <f>SUM(E31:E33)</f>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34">
+        <f>SUM(E32:E34)</f>
         <v>6</v>
       </c>
-      <c r="H33">
-        <f>(1+G33)*(1/$B$4)*1000000</f>
-        <v>17.500000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
+      <c r="H34">
+        <f>(2+G34)*8*(1/$B$4)*1000000</f>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1424,18 +1439,18 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -1444,43 +1459,63 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="G37">
-        <f>SUM(E35:E37)</f>
+      <c r="G38">
+        <f>SUM(E36:E38)</f>
         <v>96</v>
       </c>
-      <c r="H37">
-        <f>(1+G37)*(1/$B$4)*1000000</f>
-        <v>242.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="H38">
+        <f>(2+G38)*8*(1/$B$4)*1000000</f>
+        <v>7840.0000000000018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>255</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>68</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>69</v>
       </c>
-      <c r="G39">
-        <f>SUM(E39)</f>
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <f>(1+G39)*(1/$B$4)*1000000</f>
-        <v>5</v>
+      <c r="G40">
+        <f>SUM(E40)</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>(2+G40)*8*(1/$B$4)*1000000</f>
+        <v>240.00000000000003</v>
       </c>
     </row>
   </sheetData>
